--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71c41f086421be9a/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.Archivos personales\5.University\2022-2023\Second quarter\IA\IA_project\IA_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F484B16-45D1-4009-92D4-F16F1B2790D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D49D36-6867-4AAE-8DFB-359D60DE373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DCB117A6-A00E-404C-8D71-5719A07AB72F}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCB117A6-A00E-404C-8D71-5719A07AB72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
     <t>25</t>
   </si>
   <si>
-    <t>SUM</t>
+    <t>HEAT OFF</t>
   </si>
   <si>
-    <t>HEAT OFF</t>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -193,17 +193,15 @@
     <tableColumn id="18" xr3:uid="{F58C7690-A1BE-465A-89D4-6DDACE9E4A48}" name="24"/>
     <tableColumn id="19" xr3:uid="{6A02055B-902F-4C5E-ADDC-33C1430311DC}" name="24,5"/>
     <tableColumn id="20" xr3:uid="{7BB8786E-2110-468B-B0AE-481A39BC0547}" name="25"/>
-    <tableColumn id="21" xr3:uid="{39F9F76C-97E9-4935-81A9-8062533FDB10}" name="SUM" dataDxfId="1">
-      <calculatedColumnFormula>SUM(Table1[[#This Row],[16]:[25]])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="21" xr3:uid="{39F9F76C-97E9-4935-81A9-8062533FDB10}" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9E7F9CBF-4037-4130-82F6-6F5A97076403}" name="Table13" displayName="Table13" ref="A26:U45" totalsRowShown="0">
-  <autoFilter ref="A26:U45" xr:uid="{9E7F9CBF-4037-4130-82F6-6F5A97076403}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9E7F9CBF-4037-4130-82F6-6F5A97076403}" name="Table13" displayName="Table13" ref="A24:U43" totalsRowShown="0">
+  <autoFilter ref="A24:U43" xr:uid="{9E7F9CBF-4037-4130-82F6-6F5A97076403}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{8103AA1E-2312-49F6-A5E8-679462556CC1}" name="HEAT OFF"/>
     <tableColumn id="2" xr3:uid="{7604A0B2-E1D6-48DE-8545-D424AD2A15A2}" name="16"/>
@@ -225,9 +223,7 @@
     <tableColumn id="18" xr3:uid="{64A0B3F6-5B81-40CE-9E18-EAF3533FE189}" name="24"/>
     <tableColumn id="19" xr3:uid="{1AFA1EC4-14CE-4032-B249-4A4899D924A1}" name="24,5"/>
     <tableColumn id="20" xr3:uid="{8AB7F459-389D-473E-8F3D-34057911C2EF}" name="25"/>
-    <tableColumn id="21" xr3:uid="{CD1FF42A-C870-40F9-B876-6953E8E8B6F0}" name="SUM" dataDxfId="0">
-      <calculatedColumnFormula>SUM(Table13[[#This Row],[16]:[25]])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="21" xr3:uid="{CD1FF42A-C870-40F9-B876-6953E8E8B6F0}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -530,18 +526,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6438E2-D947-4732-BE0C-49D500C84AFF}">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="73" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="73" workbookViewId="0">
+      <selection activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,10 +599,10 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>16</v>
       </c>
@@ -667,12 +663,8 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>16.5</v>
       </c>
@@ -733,12 +725,8 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>17</v>
       </c>
@@ -799,12 +787,8 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>17.5</v>
       </c>
@@ -865,12 +849,8 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18</v>
       </c>
@@ -931,12 +911,8 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18.5</v>
       </c>
@@ -997,12 +973,8 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19</v>
       </c>
@@ -1063,12 +1035,8 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>19.5</v>
       </c>
@@ -1129,12 +1097,8 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -1195,12 +1159,8 @@
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20.5</v>
       </c>
@@ -1261,12 +1221,8 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>21</v>
       </c>
@@ -1327,12 +1283,8 @@
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>21.5</v>
       </c>
@@ -1393,12 +1345,8 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>22</v>
       </c>
@@ -1459,12 +1407,8 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22.5</v>
       </c>
@@ -1525,12 +1469,8 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23</v>
       </c>
@@ -1591,12 +1531,8 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23.5</v>
       </c>
@@ -1657,12 +1593,8 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1723,12 +1655,8 @@
       <c r="T18">
         <v>0.2</v>
       </c>
-      <c r="U18">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24.5</v>
       </c>
@@ -1789,12 +1717,8 @@
       <c r="T19">
         <v>0.7</v>
       </c>
-      <c r="U19">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>25</v>
       </c>
@@ -1843,1340 +1767,1266 @@
       <c r="P20">
         <v>0</v>
       </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
       <c r="S20">
         <v>0.1</v>
       </c>
       <c r="T20">
         <v>0.9</v>
       </c>
-      <c r="U20">
-        <f>SUM(Table1[[#This Row],[16]:[25]])</f>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" t="s">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" t="s">
-        <v>14</v>
-      </c>
-      <c r="P26" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q26" t="s">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>16</v>
       </c>
-      <c r="R26" t="s">
+      <c r="B25">
+        <v>0.9</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>16.5</v>
+      </c>
+      <c r="B26">
+        <v>0.7</v>
+      </c>
+      <c r="C26">
+        <v>0.2</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>17</v>
       </c>
-      <c r="S26" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.7</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>17.5</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0.7</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>18</v>
       </c>
-      <c r="T26" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.7</v>
+      </c>
+      <c r="F29">
+        <v>0.2</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>18.5</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.7</v>
+      </c>
+      <c r="G30">
+        <v>0.2</v>
+      </c>
+      <c r="H30">
+        <v>0.1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>19</v>
       </c>
-      <c r="U26" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.7</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>19.5</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.7</v>
+      </c>
+      <c r="I32">
+        <v>0.2</v>
+      </c>
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>0.9</v>
-      </c>
-      <c r="C27">
-        <v>0.1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>16.5</v>
-      </c>
-      <c r="B28">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>0.7</v>
       </c>
-      <c r="C28">
-        <v>0.2</v>
-      </c>
-      <c r="D28">
-        <v>0.1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
+      <c r="J33">
+        <v>0.2</v>
+      </c>
+      <c r="K33">
+        <v>0.1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>20.5</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>0.7</v>
       </c>
-      <c r="D29">
-        <v>0.2</v>
-      </c>
-      <c r="E29">
-        <v>0.1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>17.5</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="K34">
+        <v>0.2</v>
+      </c>
+      <c r="L34">
+        <v>0.1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>0.7</v>
       </c>
-      <c r="E30">
-        <v>0.2</v>
-      </c>
-      <c r="F30">
-        <v>0.1</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>18</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="L35">
+        <v>0.2</v>
+      </c>
+      <c r="M35">
+        <v>0.1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>21.5</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>0.7</v>
       </c>
-      <c r="F31">
-        <v>0.2</v>
-      </c>
-      <c r="G31">
-        <v>0.1</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>18.5</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="M36">
+        <v>0.2</v>
+      </c>
+      <c r="N36">
+        <v>0.1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>0.7</v>
       </c>
-      <c r="G32">
-        <v>0.2</v>
-      </c>
-      <c r="H32">
-        <v>0.1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>19</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="N37">
+        <v>0.2</v>
+      </c>
+      <c r="O37">
+        <v>0.1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>22.5</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <v>0.7</v>
       </c>
-      <c r="H33">
-        <v>0.2</v>
-      </c>
-      <c r="I33">
-        <v>0.1</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>19.5</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
+      <c r="O38">
+        <v>0.2</v>
+      </c>
+      <c r="P38">
+        <v>0.1</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
         <v>0.7</v>
       </c>
-      <c r="I34">
-        <v>0.2</v>
-      </c>
-      <c r="J34">
-        <v>0.1</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>20</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="P39">
+        <v>0.2</v>
+      </c>
+      <c r="Q39">
+        <v>0.1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>23.5</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>0.7</v>
       </c>
-      <c r="J35">
-        <v>0.2</v>
-      </c>
-      <c r="K35">
-        <v>0.1</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>20.5</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
+      <c r="Q40">
+        <v>0.2</v>
+      </c>
+      <c r="R40">
+        <v>0.1</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>0.7</v>
       </c>
-      <c r="K36">
-        <v>0.2</v>
-      </c>
-      <c r="L36">
-        <v>0.1</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>21</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
+      <c r="R41">
+        <v>0.2</v>
+      </c>
+      <c r="S41">
+        <v>0.1</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>24.5</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
         <v>0.7</v>
       </c>
-      <c r="L37">
-        <v>0.2</v>
-      </c>
-      <c r="M37">
-        <v>0.1</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>21.5</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="S42">
+        <v>0.2</v>
+      </c>
+      <c r="T42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>25</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
         <v>0.7</v>
       </c>
-      <c r="M38">
-        <v>0.2</v>
-      </c>
-      <c r="N38">
-        <v>0.1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>22</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0.7</v>
-      </c>
-      <c r="N39">
-        <v>0.2</v>
-      </c>
-      <c r="O39">
-        <v>0.1</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>22.5</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0.7</v>
-      </c>
-      <c r="O40">
-        <v>0.2</v>
-      </c>
-      <c r="P40">
-        <v>0.1</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>23</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0.7</v>
-      </c>
-      <c r="P41">
-        <v>0.2</v>
-      </c>
-      <c r="Q41">
-        <v>0.1</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>23.5</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0.7</v>
-      </c>
-      <c r="Q42">
-        <v>0.2</v>
-      </c>
-      <c r="R42">
-        <v>0.1</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>24</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0.7</v>
-      </c>
-      <c r="R43">
-        <v>0.2</v>
-      </c>
-      <c r="S43">
-        <v>0.1</v>
-      </c>
       <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>24.5</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0.7</v>
-      </c>
-      <c r="S44">
-        <v>0.2</v>
-      </c>
-      <c r="T44">
-        <v>0.1</v>
-      </c>
-      <c r="U44">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>25</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0.7</v>
-      </c>
-      <c r="T45">
         <v>0.3</v>
-      </c>
-      <c r="U45">
-        <f>SUM(Table13[[#This Row],[16]:[25]])</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B27:T45" xr:uid="{FFA6B623-A846-4069-9FBE-807E32835D02}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B25:T43" xr:uid="{FFA6B623-A846-4069-9FBE-807E32835D02}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.Archivos personales\5.University\2022-2023\Second quarter\IA\IA_project\IA_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D49D36-6867-4AAE-8DFB-359D60DE373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260EB390-F365-49C5-936E-86DA7902CDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCB117A6-A00E-404C-8D71-5719A07AB72F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>HEAT ON</t>
   </si>
@@ -103,12 +103,21 @@
   <si>
     <t>Column1</t>
   </si>
+  <si>
+    <t>Probabilities</t>
+  </si>
+  <si>
+    <t>COST ON</t>
+  </si>
+  <si>
+    <t>COST OFF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,16 +131,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,12 +169,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6438E2-D947-4732-BE0C-49D500C84AFF}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="73" workbookViewId="0">
-      <selection activeCell="Y44" sqref="Y44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="73" workbookViewId="0">
+      <selection activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3023,13 +3068,251 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.1666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <f>$A$50*1</f>
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="D53" s="2">
+        <f>$A$50*2</f>
+        <v>0.1666</v>
+      </c>
+      <c r="E53" s="2">
+        <f>$A$50*3</f>
+        <v>0.24990000000000001</v>
+      </c>
+      <c r="F53" s="2">
+        <f>$A$50*4</f>
+        <v>0.3332</v>
+      </c>
+      <c r="G53" s="2">
+        <f>$A$50*5</f>
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="H53" s="2">
+        <f>$A$50*6</f>
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="I53" s="2">
+        <f>$A$50*7</f>
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="J53" s="2">
+        <f>$A$50*8</f>
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="K53" s="2">
+        <f>$A$50*9</f>
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="L53" s="2">
+        <f>$A$50*10</f>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="M53" s="2">
+        <f>$A$50*11</f>
+        <v>0.9163</v>
+      </c>
+      <c r="N53" s="2">
+        <f>$A$50*12</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="O53" s="2">
+        <f>$A$50*13</f>
+        <v>1.0829</v>
+      </c>
+      <c r="P53" s="2">
+        <f>$A$50*14</f>
+        <v>1.1661999999999999</v>
+      </c>
+      <c r="Q53" s="2">
+        <f>$A$50*15</f>
+        <v>1.2495000000000001</v>
+      </c>
+      <c r="R53" s="2">
+        <f>$A$50*16</f>
+        <v>1.3328</v>
+      </c>
+      <c r="S53" s="2">
+        <f>$A$50*17</f>
+        <v>1.4160999999999999</v>
+      </c>
+      <c r="T53" s="2">
+        <f>$A$50*18</f>
+        <v>1.4994000000000001</v>
+      </c>
+      <c r="U53" s="2"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1">
+        <f>$A$51*18</f>
+        <v>2.9988000000000001</v>
+      </c>
+      <c r="C54" s="1">
+        <f>$A$51*17</f>
+        <v>2.8321999999999998</v>
+      </c>
+      <c r="D54" s="1">
+        <f>$A$51*16</f>
+        <v>2.6656</v>
+      </c>
+      <c r="E54" s="1">
+        <f>$A$51*15</f>
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="F54" s="1">
+        <f>$A$51*14</f>
+        <v>2.3323999999999998</v>
+      </c>
+      <c r="G54" s="1">
+        <f>$A$51*13</f>
+        <v>2.1657999999999999</v>
+      </c>
+      <c r="H54" s="1">
+        <f>$A$51*12</f>
+        <v>1.9992000000000001</v>
+      </c>
+      <c r="I54" s="1">
+        <f>$A$51*11</f>
+        <v>1.8326</v>
+      </c>
+      <c r="J54" s="1">
+        <f>$A$51*10</f>
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="K54" s="1">
+        <f>$A$51*9</f>
+        <v>1.4994000000000001</v>
+      </c>
+      <c r="L54" s="1">
+        <f>$A$51*8</f>
+        <v>1.3328</v>
+      </c>
+      <c r="M54" s="1">
+        <f>$A$51*7</f>
+        <v>1.1661999999999999</v>
+      </c>
+      <c r="N54" s="1">
+        <f>$A$51*6</f>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="O54" s="1">
+        <f>$A$51*5</f>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="P54" s="1">
+        <f>$A$51*4</f>
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="Q54" s="1">
+        <f>$A$51*3</f>
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="R54" s="1">
+        <f>$A$51*2</f>
+        <v>0.3332</v>
+      </c>
+      <c r="S54" s="1">
+        <f>$A$51*1</f>
+        <v>0.1666</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B25:T43" xr:uid="{FFA6B623-A846-4069-9FBE-807E32835D02}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A52:U55" xr:uid="{E03A1E00-1EBE-4A57-9D69-9C004561EDC7}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
